--- a/text-finder/config.xlsx
+++ b/text-finder/config.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +19,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\excel-files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hien</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,13 +66,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,8 +122,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,14 +152,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="C:\excel-files"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/text-finder/config.xlsx
+++ b/text-finder/config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Path</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">hien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vietnam</t>
   </si>
 </sst>
 </file>
@@ -152,16 +158,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,6 +189,16 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/text-finder/config.xlsx
+++ b/text-finder/config.xlsx
@@ -31,16 +31,16 @@
     <t xml:space="preserve">Search For</t>
   </si>
   <si>
-    <t xml:space="preserve">vinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vietnam</t>
+    <t xml:space="preserve">tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kanazawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toyama</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="1" width="11.57"/>

--- a/text-finder/config.xlsx
+++ b/text-finder/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\text-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC76166-22DE-43FB-A18F-FF2A93E4C4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4D1E8-6BC5-45E9-94B5-776CE6ED76BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Path</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>toyama</t>
-  </si>
-  <si>
-    <t>shape 1</t>
   </si>
 </sst>
 </file>
@@ -414,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -457,11 +454,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/text-finder/config.xlsx
+++ b/text-finder/config.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\text-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4D1E8-6BC5-45E9-94B5-776CE6ED76BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE465AC-146B-436D-B3D6-7FEDAEC5472E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,43 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Path</t>
   </si>
   <si>
-    <t>C:\excel-files</t>
-  </si>
-  <si>
     <t>Search For</t>
   </si>
   <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>kanazawa</t>
-  </si>
-  <si>
-    <t>chiba</t>
-  </si>
-  <si>
-    <t>toyama</t>
+    <t>C:\abc\def\</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>china</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -93,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,11 +400,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -427,13 +414,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -449,15 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/text-finder/config.xlsx
+++ b/text-finder/config.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\text-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE465AC-146B-436D-B3D6-7FEDAEC5472E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B83503-F99B-4825-8434-5D6E6C9709BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="Text-Finder" sheetId="1" r:id="rId1"/>
+    <sheet name="Diff-Finder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Path</t>
   </si>
@@ -33,16 +34,34 @@
     <t>Search For</t>
   </si>
   <si>
-    <t>C:\abc\def\</t>
-  </si>
-  <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>china</t>
+    <t>File 1</t>
+  </si>
+  <si>
+    <t>C:\excel-files\diff_1.xlsx</t>
+  </si>
+  <si>
+    <t>File 2</t>
+  </si>
+  <si>
+    <t>C:\excel-files\diff_2.xlsx</t>
+  </si>
+  <si>
+    <t>Recursively</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>tokyo</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>C:\Excels\</t>
   </si>
 </sst>
 </file>
@@ -57,7 +76,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +86,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -83,9 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,40 +434,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="B2:AMK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125" style="4"/>
+    <col min="1026" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -444,4 +490,38 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47A4E94-6B10-410D-BD40-506A23BBB851}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/text-finder/config.xlsx
+++ b/text-finder/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\text-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B83503-F99B-4825-8434-5D6E6C9709BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C304B841-7821-4AA2-944D-16CEB94E7E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,12 +68,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -102,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,16 +116,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,57 +458,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AMK7"/>
+  <dimension ref="B2:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
-    <col min="3" max="1025" width="11.5703125" style="4"/>
+    <col min="2" max="2" width="12.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="4" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125" style="4"/>
     <col min="1026" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
